--- a/jonestown_new.xlsx
+++ b/jonestown_new.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sydneymeyer/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F9854F-9631-C843-8B34-4DCBE43551A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E05CBC0-7DD5-9E43-B318-1205063419A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="460" windowWidth="20840" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="4080" yWindow="480" windowWidth="20840" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PT Spreadsheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13753" uniqueCount="2050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13754" uniqueCount="2050">
   <si>
     <t xml:space="preserve"> • Jr High-High Sch Student </t>
   </si>
@@ -6530,7 +6530,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
@@ -6989,11 +6989,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1000" workbookViewId="0">
-      <selection activeCell="M839" sqref="M839"/>
+    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="L517" sqref="L517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8883,7 +8883,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="28" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="42" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="28" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="42" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -27161,7 +27161,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="355" spans="1:21" ht="28" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:21" ht="42" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -33110,7 +33110,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="460" spans="1:21" ht="28" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:21" ht="42" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -36309,6 +36309,9 @@
       <c r="I517" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="L517" s="7" t="s">
+        <v>2036</v>
+      </c>
       <c r="O517" s="7" t="s">
         <v>71</v>
       </c>
@@ -50338,7 +50341,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="764" spans="1:21" ht="28" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:21" ht="42" x14ac:dyDescent="0.15">
       <c r="A764" s="1">
         <v>763</v>
       </c>
@@ -64517,7 +64520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
